--- a/REGULAR/OJT/HERNANDO, MERLE.xlsx
+++ b/REGULAR/OJT/HERNANDO, MERLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BDFDC-734F-4BFF-B5D1-1761AF6F658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814D7C9-7ED8-42CB-9DCA-F7919E8F2A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1259,6 +1259,15 @@
   </si>
   <si>
     <t>6/5,6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/22,29/2023</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1496,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,11 +1698,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1787,24 +1817,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3372,25 +3384,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K718" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="3">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3719,12 +3731,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K718"/>
+  <dimension ref="A2:K719"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A658" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B666" sqref="B666"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2160" topLeftCell="A667" activePane="bottomLeft"/>
+      <selection activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D671" sqref="D671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3887,7 +3899,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.076000000000136</v>
+        <v>52.576000000000136</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3897,7 +3909,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.25</v>
+        <v>137.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3909,11 +3921,15 @@
       <c r="B10" s="49"/>
       <c r="C10" s="13"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="66" t="s">
+        <v>410</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="66" t="s">
+        <v>410</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
@@ -3994,7 +4010,7 @@
         <v>35431</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -4011,8 +4027,8 @@
       <c r="H15" s="38"/>
       <c r="I15" s="13"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="50">
-        <v>44942</v>
+      <c r="K15" s="48">
+        <v>35446</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4107,8 +4123,8 @@
       <c r="H19" s="38"/>
       <c r="I19" s="13"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="50">
-        <v>45055</v>
+      <c r="K19" s="48">
+        <v>35559</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4126,8 +4142,8 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="50">
-        <v>45065</v>
+      <c r="K20" s="48">
+        <v>35569</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4174,8 +4190,8 @@
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="50">
-        <v>45115</v>
+      <c r="K22" s="48">
+        <v>35619</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -4222,8 +4238,8 @@
       <c r="H24" s="38"/>
       <c r="I24" s="13"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="50">
-        <v>45180</v>
+      <c r="K24" s="48">
+        <v>35684</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -18025,13 +18041,15 @@
       <c r="B665" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C665" s="13"/>
+      <c r="C665" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D665" s="38"/>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G665" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H665" s="38"/>
       <c r="I665" s="9"/>
@@ -18045,13 +18063,15 @@
         <v>45108</v>
       </c>
       <c r="B666" s="20"/>
-      <c r="C666" s="13"/>
+      <c r="C666" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D666" s="38"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G666" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H666" s="38"/>
       <c r="I666" s="9"/>
@@ -18063,13 +18083,15 @@
         <v>45139</v>
       </c>
       <c r="B667" s="20"/>
-      <c r="C667" s="13"/>
+      <c r="C667" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D667" s="38"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G667" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H667" s="38"/>
       <c r="I667" s="9"/>
@@ -18081,13 +18103,15 @@
         <v>45170</v>
       </c>
       <c r="B668" s="20"/>
-      <c r="C668" s="13"/>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D668" s="38"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="38"/>
       <c r="I668" s="9"/>
@@ -18099,13 +18123,15 @@
         <v>45200</v>
       </c>
       <c r="B669" s="20"/>
-      <c r="C669" s="13"/>
+      <c r="C669" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D669" s="38"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G669" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H669" s="38"/>
       <c r="I669" s="9"/>
@@ -18117,13 +18143,15 @@
         <v>45231</v>
       </c>
       <c r="B670" s="20"/>
-      <c r="C670" s="13"/>
+      <c r="C670" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D670" s="38"/>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G670" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H670" s="38"/>
       <c r="I670" s="9"/>
@@ -18134,9 +18162,13 @@
       <c r="A671" s="39">
         <v>45261</v>
       </c>
-      <c r="B671" s="20"/>
+      <c r="B671" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C671" s="13"/>
-      <c r="D671" s="38"/>
+      <c r="D671" s="38">
+        <v>2</v>
+      </c>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
       <c r="G671" s="13" t="str">
@@ -18146,11 +18178,13 @@
       <c r="H671" s="38"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="20"/>
+      <c r="K671" s="20" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A672" s="39">
-        <v>45292</v>
+      <c r="A672" s="47" t="s">
+        <v>408</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18168,7 +18202,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18186,7 +18220,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18204,7 +18238,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18222,7 +18256,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18240,7 +18274,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18258,7 +18292,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18275,7 +18309,9 @@
       <c r="K678" s="20"/>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A679" s="39"/>
+      <c r="A679" s="39">
+        <v>45474</v>
+      </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
       <c r="D679" s="38"/>
@@ -18899,20 +18935,36 @@
       <c r="K717" s="20"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A718" s="40"/>
-      <c r="B718" s="15"/>
-      <c r="C718" s="41"/>
-      <c r="D718" s="42"/>
+      <c r="A718" s="39"/>
+      <c r="B718" s="20"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="38"/>
       <c r="E718" s="9"/>
-      <c r="F718" s="15"/>
-      <c r="G718" s="41" t="str">
+      <c r="F718" s="20"/>
+      <c r="G718" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H718" s="42"/>
+      <c r="H718" s="38"/>
       <c r="I718" s="9"/>
-      <c r="J718" s="12"/>
-      <c r="K718" s="15"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="20"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A719" s="40"/>
+      <c r="B719" s="15"/>
+      <c r="C719" s="41"/>
+      <c r="D719" s="42"/>
+      <c r="E719" s="9"/>
+      <c r="F719" s="15"/>
+      <c r="G719" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H719" s="42"/>
+      <c r="I719" s="9"/>
+      <c r="J719" s="12"/>
+      <c r="K719" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
